--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N2">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O2">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P2">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q2">
-        <v>749.3326216585837</v>
+        <v>750.974504837667</v>
       </c>
       <c r="R2">
-        <v>749.3326216585837</v>
+        <v>3003.898019350668</v>
       </c>
       <c r="S2">
-        <v>0.01657665261236467</v>
+        <v>0.01555486265229619</v>
       </c>
       <c r="T2">
-        <v>0.01657665261236467</v>
+        <v>0.008285361669083287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N3">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O3">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P3">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q3">
-        <v>151.9433429266793</v>
+        <v>168.1104147064613</v>
       </c>
       <c r="R3">
-        <v>151.9433429266793</v>
+        <v>1008.662488238768</v>
       </c>
       <c r="S3">
-        <v>0.003361273671606617</v>
+        <v>0.003482054842520668</v>
       </c>
       <c r="T3">
-        <v>0.003361273671606617</v>
+        <v>0.002782096283981759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N4">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O4">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P4">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q4">
-        <v>2625.451938885307</v>
+        <v>2633.390823246377</v>
       </c>
       <c r="R4">
-        <v>2625.451938885307</v>
+        <v>15800.34493947826</v>
       </c>
       <c r="S4">
-        <v>0.05807995472695499</v>
+        <v>0.05454517071024811</v>
       </c>
       <c r="T4">
-        <v>0.05807995472695499</v>
+        <v>0.04358056481163283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N5">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O5">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P5">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q5">
-        <v>2978.455240347407</v>
+        <v>2995.494685904362</v>
       </c>
       <c r="R5">
-        <v>2978.455240347407</v>
+        <v>17972.96811542617</v>
       </c>
       <c r="S5">
-        <v>0.0658890543580414</v>
+        <v>0.06204539317216565</v>
       </c>
       <c r="T5">
-        <v>0.0658890543580414</v>
+        <v>0.04957310139822838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N6">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O6">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P6">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q6">
-        <v>862.315281546387</v>
+        <v>961.9467158533523</v>
       </c>
       <c r="R6">
-        <v>862.315281546387</v>
+        <v>5771.680295120113</v>
       </c>
       <c r="S6">
-        <v>0.01907604240275658</v>
+        <v>0.01992470975717174</v>
       </c>
       <c r="T6">
-        <v>0.01907604240275658</v>
+        <v>0.01591946809623335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N7">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O7">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P7">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q7">
-        <v>1529.651420040009</v>
+        <v>1633.413621555972</v>
       </c>
       <c r="R7">
-        <v>1529.651420040009</v>
+        <v>6533.654486223887</v>
       </c>
       <c r="S7">
-        <v>0.03383877796737195</v>
+        <v>0.0338327391596137</v>
       </c>
       <c r="T7">
-        <v>0.03383877796737195</v>
+        <v>0.01802114788533838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N8">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O8">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P8">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q8">
-        <v>472.3685775841466</v>
+        <v>532.8986944032999</v>
       </c>
       <c r="R8">
-        <v>472.3685775841466</v>
+        <v>3197.3921664198</v>
       </c>
       <c r="S8">
-        <v>0.01044968494535518</v>
+        <v>0.01103787937624208</v>
       </c>
       <c r="T8">
-        <v>0.01044968494535518</v>
+        <v>0.00881905787947098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N9">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O9">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P9">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q9">
-        <v>95.78291228372217</v>
+        <v>119.2927588560889</v>
       </c>
       <c r="R9">
-        <v>95.78291228372217</v>
+        <v>1073.6348297048</v>
       </c>
       <c r="S9">
-        <v>0.002118898893809652</v>
+        <v>0.002470899434623364</v>
       </c>
       <c r="T9">
-        <v>0.002118898893809652</v>
+        <v>0.002961303215796846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N10">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O10">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P10">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q10">
-        <v>1655.047387556353</v>
+        <v>1868.679326024489</v>
       </c>
       <c r="R10">
-        <v>1655.047387556353</v>
+        <v>16818.1139342204</v>
       </c>
       <c r="S10">
-        <v>0.03661277356349175</v>
+        <v>0.03870577505661069</v>
       </c>
       <c r="T10">
-        <v>0.03661277356349175</v>
+        <v>0.04638777869262894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N11">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O11">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P11">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q11">
-        <v>1877.575624783071</v>
+        <v>2125.631691791611</v>
       </c>
       <c r="R11">
-        <v>1877.575624783071</v>
+        <v>19130.6852261245</v>
       </c>
       <c r="S11">
-        <v>0.04153551838779206</v>
+        <v>0.04402800468217451</v>
       </c>
       <c r="T11">
-        <v>0.04153551838779206</v>
+        <v>0.05276632064562987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N12">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O12">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P12">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q12">
-        <v>543.5912319839327</v>
+        <v>682.6065940475611</v>
       </c>
       <c r="R12">
-        <v>543.5912319839327</v>
+        <v>6143.45934642805</v>
       </c>
       <c r="S12">
-        <v>0.01202526455578576</v>
+        <v>0.0141387646951566</v>
       </c>
       <c r="T12">
-        <v>0.01202526455578576</v>
+        <v>0.01694491033203228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N13">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O13">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P13">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q13">
-        <v>964.2703982172105</v>
+        <v>1159.085935328658</v>
       </c>
       <c r="R13">
-        <v>964.2703982172105</v>
+        <v>6954.51561197195</v>
       </c>
       <c r="S13">
-        <v>0.02133148211304774</v>
+        <v>0.02400803543942259</v>
       </c>
       <c r="T13">
-        <v>0.02133148211304774</v>
+        <v>0.01918196846473808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N14">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O14">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P14">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q14">
-        <v>1058.682898877569</v>
+        <v>1120.82547595088</v>
       </c>
       <c r="R14">
-        <v>1058.682898877569</v>
+        <v>6724.95285570528</v>
       </c>
       <c r="S14">
-        <v>0.02342006491389701</v>
+        <v>0.02321555022614129</v>
       </c>
       <c r="T14">
-        <v>0.02342006491389701</v>
+        <v>0.01854878769456263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N15">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O15">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P15">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q15">
-        <v>214.6707805122857</v>
+        <v>250.9039046756978</v>
       </c>
       <c r="R15">
-        <v>214.6707805122857</v>
+        <v>2258.13514208128</v>
       </c>
       <c r="S15">
-        <v>0.004748923043949239</v>
+        <v>0.005196948433021611</v>
       </c>
       <c r="T15">
-        <v>0.004748923043949239</v>
+        <v>0.006228395980584745</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N16">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O16">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P16">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q16">
-        <v>3709.328793627855</v>
+        <v>3930.321873533938</v>
       </c>
       <c r="R16">
-        <v>3709.328793627855</v>
+        <v>35372.89686180544</v>
       </c>
       <c r="S16">
-        <v>0.08205735752023138</v>
+        <v>0.0814083787509552</v>
       </c>
       <c r="T16">
-        <v>0.08205735752023138</v>
+        <v>0.09756564367208169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N17">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O17">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P17">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q17">
-        <v>4208.063998399874</v>
+        <v>4470.759973087022</v>
       </c>
       <c r="R17">
-        <v>4208.063998399874</v>
+        <v>40236.8397577832</v>
       </c>
       <c r="S17">
-        <v>0.09309032204907204</v>
+        <v>0.09260242110054651</v>
       </c>
       <c r="T17">
-        <v>0.09309032204907204</v>
+        <v>0.11098138740617</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N18">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O18">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P18">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q18">
-        <v>1218.308686459278</v>
+        <v>1435.700384886942</v>
       </c>
       <c r="R18">
-        <v>1218.308686459278</v>
+        <v>12921.30346398248</v>
       </c>
       <c r="S18">
-        <v>0.02695128876861226</v>
+        <v>0.02973752391446704</v>
       </c>
       <c r="T18">
-        <v>0.02695128876861226</v>
+        <v>0.03563958288378094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N19">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O19">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P19">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q19">
-        <v>2161.144133903724</v>
+        <v>2437.861189709587</v>
       </c>
       <c r="R19">
-        <v>2161.144133903724</v>
+        <v>14627.16713825752</v>
       </c>
       <c r="S19">
-        <v>0.04780858929333306</v>
+        <v>0.050495184226651</v>
       </c>
       <c r="T19">
-        <v>0.04780858929333306</v>
+        <v>0.04034470183538076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N20">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O20">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P20">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q20">
-        <v>619.5914850899729</v>
+        <v>630.7740807277679</v>
       </c>
       <c r="R20">
-        <v>619.5914850899729</v>
+        <v>3784.644484366608</v>
       </c>
       <c r="S20">
-        <v>0.01370653367149848</v>
+        <v>0.01306516283461544</v>
       </c>
       <c r="T20">
-        <v>0.01370653367149848</v>
+        <v>0.01043881920753649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N21">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O21">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P21">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q21">
-        <v>125.635530567319</v>
+        <v>141.202785998912</v>
       </c>
       <c r="R21">
-        <v>125.635530567319</v>
+        <v>1270.825073990208</v>
       </c>
       <c r="S21">
-        <v>0.002779295183192314</v>
+        <v>0.00292471971842696</v>
       </c>
       <c r="T21">
-        <v>0.002779295183192314</v>
+        <v>0.00350519401401797</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N22">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O22">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P22">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q22">
-        <v>2170.875281321288</v>
+        <v>2211.892234729376</v>
       </c>
       <c r="R22">
-        <v>2170.875281321288</v>
+        <v>19907.03011256438</v>
       </c>
       <c r="S22">
-        <v>0.04802386065026882</v>
+        <v>0.04581471100717749</v>
       </c>
       <c r="T22">
-        <v>0.04802386065026882</v>
+        <v>0.05490763773517882</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N23">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O23">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P23">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q23">
-        <v>2462.758796695879</v>
+        <v>2516.03802080428</v>
       </c>
       <c r="R23">
-        <v>2462.758796695879</v>
+        <v>22644.34218723852</v>
       </c>
       <c r="S23">
-        <v>0.05448087519600005</v>
+        <v>0.05211445340614541</v>
       </c>
       <c r="T23">
-        <v>0.05448087519600005</v>
+        <v>0.06245770115068932</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N24">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O24">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P24">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q24">
-        <v>713.0120729650257</v>
+        <v>807.9782356028919</v>
       </c>
       <c r="R24">
-        <v>713.0120729650257</v>
+        <v>7271.804120426027</v>
       </c>
       <c r="S24">
-        <v>0.0157731734884331</v>
+        <v>0.01673557544215743</v>
       </c>
       <c r="T24">
-        <v>0.0157731734884331</v>
+        <v>0.02005711470107878</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N25">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O25">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P25">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q25">
-        <v>1264.80413052723</v>
+        <v>1371.970644739662</v>
       </c>
       <c r="R25">
-        <v>1264.80413052723</v>
+        <v>8231.823868437972</v>
       </c>
       <c r="S25">
-        <v>0.02797985579224738</v>
+        <v>0.02841749593952033</v>
       </c>
       <c r="T25">
-        <v>0.02797985579224738</v>
+        <v>0.0227050444145717</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N26">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O26">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P26">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q26">
-        <v>639.3319496314903</v>
+        <v>655.781130512324</v>
       </c>
       <c r="R26">
-        <v>639.3319496314903</v>
+        <v>3934.686783073944</v>
       </c>
       <c r="S26">
-        <v>0.01414323002456414</v>
+        <v>0.01358313145037023</v>
       </c>
       <c r="T26">
-        <v>0.01414323002456414</v>
+        <v>0.01085266638292084</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N27">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O27">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P27">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q27">
-        <v>129.6383353120594</v>
+        <v>146.8007729915271</v>
       </c>
       <c r="R27">
-        <v>129.6383353120594</v>
+        <v>1321.206956923744</v>
       </c>
       <c r="S27">
-        <v>0.002867844782943915</v>
+        <v>0.003040670284309741</v>
       </c>
       <c r="T27">
-        <v>0.002867844782943915</v>
+        <v>0.003644157493798152</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N28">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O28">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P28">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q28">
-        <v>2240.040348218159</v>
+        <v>2299.582742189879</v>
       </c>
       <c r="R28">
-        <v>2240.040348218159</v>
+        <v>20696.24467970891</v>
       </c>
       <c r="S28">
-        <v>0.04955392253963732</v>
+        <v>0.0476310360497342</v>
       </c>
       <c r="T28">
-        <v>0.04955392253963732</v>
+        <v>0.05708445202154229</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N29">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O29">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P29">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q29">
-        <v>2541.223404216148</v>
+        <v>2615.786393428429</v>
       </c>
       <c r="R29">
-        <v>2541.223404216148</v>
+        <v>23542.07754085586</v>
       </c>
       <c r="S29">
-        <v>0.05621666048498171</v>
+        <v>0.05418053184950627</v>
       </c>
       <c r="T29">
-        <v>0.05621666048498171</v>
+        <v>0.06493383783706388</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N30">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O30">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P30">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q30">
-        <v>735.7289596278498</v>
+        <v>840.010547297195</v>
       </c>
       <c r="R30">
-        <v>735.7289596278498</v>
+        <v>7560.094925674754</v>
       </c>
       <c r="S30">
-        <v>0.01627571391942434</v>
+        <v>0.01739905763180663</v>
       </c>
       <c r="T30">
-        <v>0.01627571391942434</v>
+        <v>0.02085227937443653</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N31">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O31">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P31">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q31">
-        <v>1305.101361350233</v>
+        <v>1426.362445646208</v>
       </c>
       <c r="R31">
-        <v>1305.101361350233</v>
+        <v>8558.174673877247</v>
       </c>
       <c r="S31">
-        <v>0.02887130663435091</v>
+        <v>0.0295441080775652</v>
       </c>
       <c r="T31">
-        <v>0.02887130663435091</v>
+        <v>0.02360518630908432</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.35558224258196</v>
+        <v>7.370274</v>
       </c>
       <c r="N32">
-        <v>7.35558224258196</v>
+        <v>14.740548</v>
       </c>
       <c r="O32">
-        <v>0.08422164790735034</v>
+        <v>0.08213358173824917</v>
       </c>
       <c r="P32">
-        <v>0.08422164790735034</v>
+        <v>0.05996856771214629</v>
       </c>
       <c r="Q32">
-        <v>267.8560545610812</v>
+        <v>274.080122307801</v>
       </c>
       <c r="R32">
-        <v>267.8560545610812</v>
+        <v>1096.320489231204</v>
       </c>
       <c r="S32">
-        <v>0.005925481739670875</v>
+        <v>0.005676995198583937</v>
       </c>
       <c r="T32">
-        <v>0.005925481739670875</v>
+        <v>0.00302387487857206</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.49150286909469</v>
+        <v>1.649882666666667</v>
       </c>
       <c r="N33">
-        <v>1.49150286909469</v>
+        <v>4.949648</v>
       </c>
       <c r="O33">
-        <v>0.01707775473795828</v>
+        <v>0.01838612416053829</v>
       </c>
       <c r="P33">
-        <v>0.01707775473795828</v>
+        <v>0.020136517396727</v>
       </c>
       <c r="Q33">
-        <v>54.31358942184854</v>
+        <v>61.35457692258399</v>
       </c>
       <c r="R33">
-        <v>54.31358942184854</v>
+        <v>368.127461535504</v>
       </c>
       <c r="S33">
-        <v>0.001201519162456544</v>
+        <v>0.00127083144763594</v>
       </c>
       <c r="T33">
-        <v>0.001201519162456544</v>
+        <v>0.001015370408547527</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.771903027086</v>
+        <v>25.84483466666667</v>
       </c>
       <c r="N34">
-        <v>25.771903027086</v>
+        <v>77.534504</v>
       </c>
       <c r="O34">
-        <v>0.2950890998246395</v>
+        <v>0.2880122015282203</v>
       </c>
       <c r="P34">
-        <v>0.2950890998246395</v>
+        <v>0.3154314990970266</v>
       </c>
       <c r="Q34">
-        <v>938.4927033244471</v>
+        <v>961.0979790527319</v>
       </c>
       <c r="R34">
-        <v>938.4927033244471</v>
+        <v>5766.587874316391</v>
       </c>
       <c r="S34">
-        <v>0.02076123082405533</v>
+        <v>0.01990712995349459</v>
       </c>
       <c r="T34">
-        <v>0.02076123082405533</v>
+        <v>0.01590542216396194</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.2370461968311</v>
+        <v>29.39862333333333</v>
       </c>
       <c r="N35">
-        <v>29.2370461968311</v>
+        <v>88.19587</v>
       </c>
       <c r="O35">
-        <v>0.3347650980483219</v>
+        <v>0.3276152599673137</v>
       </c>
       <c r="P35">
-        <v>0.3347650980483219</v>
+        <v>0.3588048423997975</v>
       </c>
       <c r="Q35">
-        <v>1064.677082388829</v>
+        <v>1093.253558671085</v>
       </c>
       <c r="R35">
-        <v>1064.677082388829</v>
+        <v>6559.52135202651</v>
       </c>
       <c r="S35">
-        <v>0.02355266757243468</v>
+        <v>0.02264445575677526</v>
       </c>
       <c r="T35">
-        <v>0.02355266757243468</v>
+        <v>0.01809249396201601</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.46464011991144</v>
+        <v>9.440814333333334</v>
       </c>
       <c r="N36">
-        <v>8.46464011991144</v>
+        <v>28.322443</v>
       </c>
       <c r="O36">
-        <v>0.09692039546707162</v>
+        <v>0.1052074720319038</v>
       </c>
       <c r="P36">
-        <v>0.09692039546707162</v>
+        <v>0.115223419157748</v>
       </c>
       <c r="Q36">
-        <v>308.2427782090905</v>
+        <v>351.0777953662565</v>
       </c>
       <c r="R36">
-        <v>308.2427782090905</v>
+        <v>2106.466772197539</v>
       </c>
       <c r="S36">
-        <v>0.006818912332059598</v>
+        <v>0.007271840591144339</v>
       </c>
       <c r="T36">
-        <v>0.006818912332059598</v>
+        <v>0.005810063770186094</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.0153303050952</v>
+        <v>16.0307785</v>
       </c>
       <c r="N37">
-        <v>15.0153303050952</v>
+        <v>32.061557</v>
       </c>
       <c r="O37">
-        <v>0.1719260040146583</v>
+        <v>0.1786453605737748</v>
       </c>
       <c r="P37">
-        <v>0.1719260040146583</v>
+        <v>0.1304351542365547</v>
       </c>
       <c r="Q37">
-        <v>546.7884119588676</v>
+        <v>596.1403513586152</v>
       </c>
       <c r="R37">
-        <v>546.7884119588676</v>
+        <v>2384.561405434461</v>
       </c>
       <c r="S37">
-        <v>0.01209599221430729</v>
+        <v>0.01234779773100194</v>
       </c>
       <c r="T37">
-        <v>0.01209599221430729</v>
+        <v>0.006577105327441435</v>
       </c>
     </row>
   </sheetData>
